--- a/data/admissions_org.xlsx
+++ b/data/admissions_org.xlsx
@@ -2014,7 +2014,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2027,12 +2027,12 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2297,12 +2297,12 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2387,12 +2387,12 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2423,12 +2423,12 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2459,12 +2459,12 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -4115,12 +4115,12 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -4277,12 +4277,12 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -6203,12 +6203,12 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -6293,12 +6293,12 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -10474,7 +10474,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -10582,7 +10582,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -10618,7 +10618,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -10762,7 +10762,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B672" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B673" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B674" t="inlineStr">
         <is>
@@ -12508,7 +12508,7 @@
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B675" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B676" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B677" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B678" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B679" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B680" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B681" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B682" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B683" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B684" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B685" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B686" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B687" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B688" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B689" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B690" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B691" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B692" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B693" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B694" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B695" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B696" t="inlineStr">
         <is>
@@ -12904,7 +12904,7 @@
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B697" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
     </row>
     <row r="788">
       <c r="A788" s="2" t="n">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B788" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
     </row>
     <row r="789">
       <c r="A789" s="2" t="n">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B789" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
     </row>
     <row r="790">
       <c r="A790" s="2" t="n">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B790" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
     </row>
     <row r="791">
       <c r="A791" s="2" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B791" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
     </row>
     <row r="792">
       <c r="A792" s="2" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B792" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
     </row>
     <row r="793">
       <c r="A793" s="2" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B793" t="inlineStr">
         <is>
@@ -14650,7 +14650,7 @@
     </row>
     <row r="794">
       <c r="A794" s="2" t="n">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B794" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
     </row>
     <row r="795">
       <c r="A795" s="2" t="n">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B795" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
     </row>
     <row r="796">
       <c r="A796" s="2" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B796" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
     </row>
     <row r="797">
       <c r="A797" s="2" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B797" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
     </row>
     <row r="798">
       <c r="A798" s="2" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B798" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
     </row>
     <row r="799">
       <c r="A799" s="2" t="n">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B799" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
     </row>
     <row r="800">
       <c r="A800" s="2" t="n">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B800" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
     </row>
     <row r="801">
       <c r="A801" s="2" t="n">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B801" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
     </row>
     <row r="802">
       <c r="A802" s="2" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B802" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B803" t="inlineStr">
         <is>
@@ -14830,7 +14830,7 @@
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B804" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
     </row>
     <row r="805">
       <c r="A805" s="2" t="n">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B805" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
     </row>
     <row r="806">
       <c r="A806" s="2" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B806" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
     </row>
     <row r="807">
       <c r="A807" s="2" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B807" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
     </row>
     <row r="808">
       <c r="A808" s="2" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B808" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
     </row>
     <row r="809">
       <c r="A809" s="2" t="n">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B809" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
     </row>
     <row r="810">
       <c r="A810" s="2" t="n">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B810" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
     </row>
     <row r="811">
       <c r="A811" s="2" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B811" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
     </row>
     <row r="812">
       <c r="A812" s="2" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B812" t="inlineStr">
         <is>
@@ -14992,7 +14992,7 @@
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B813" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
     </row>
     <row r="904">
       <c r="A904" s="2" t="n">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B904" t="inlineStr">
         <is>
@@ -16643,12 +16643,12 @@
         </is>
       </c>
       <c r="D904" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" s="2" t="n">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B905" t="inlineStr">
         <is>
@@ -16661,12 +16661,12 @@
         </is>
       </c>
       <c r="D905" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" s="2" t="n">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B906" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
     </row>
     <row r="907">
       <c r="A907" s="2" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B907" t="inlineStr">
         <is>
@@ -16697,12 +16697,12 @@
         </is>
       </c>
       <c r="D907" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" s="2" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B908" t="inlineStr">
         <is>
@@ -16715,12 +16715,12 @@
         </is>
       </c>
       <c r="D908" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" s="2" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B909" t="inlineStr">
         <is>
@@ -16738,7 +16738,7 @@
     </row>
     <row r="910">
       <c r="A910" s="2" t="n">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B910" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
     </row>
     <row r="911">
       <c r="A911" s="2" t="n">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B911" t="inlineStr">
         <is>
@@ -16774,7 +16774,7 @@
     </row>
     <row r="912">
       <c r="A912" s="2" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B912" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
     </row>
     <row r="913">
       <c r="A913" s="2" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B913" t="inlineStr">
         <is>
@@ -16805,12 +16805,12 @@
         </is>
       </c>
       <c r="D913" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" s="2" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B914" t="inlineStr">
         <is>
@@ -16823,12 +16823,12 @@
         </is>
       </c>
       <c r="D914" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" s="2" t="n">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B915" t="inlineStr">
         <is>
@@ -16846,7 +16846,7 @@
     </row>
     <row r="916">
       <c r="A916" s="2" t="n">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B916" t="inlineStr">
         <is>
@@ -16859,12 +16859,12 @@
         </is>
       </c>
       <c r="D916" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" s="2" t="n">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B917" t="inlineStr">
         <is>
@@ -16877,12 +16877,12 @@
         </is>
       </c>
       <c r="D917" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" s="2" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B918" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
     </row>
     <row r="919">
       <c r="A919" s="2" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B919" t="inlineStr">
         <is>
@@ -16913,12 +16913,12 @@
         </is>
       </c>
       <c r="D919" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B920" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
     </row>
     <row r="921">
       <c r="A921" s="2" t="n">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B921" t="inlineStr">
         <is>
@@ -16949,12 +16949,12 @@
         </is>
       </c>
       <c r="D921" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" s="2" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B922" t="inlineStr">
         <is>
@@ -16967,12 +16967,12 @@
         </is>
       </c>
       <c r="D922" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" s="2" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B923" t="inlineStr">
         <is>
@@ -16985,12 +16985,12 @@
         </is>
       </c>
       <c r="D923" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" s="2" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B924" t="inlineStr">
         <is>
@@ -17003,12 +17003,12 @@
         </is>
       </c>
       <c r="D924" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" s="2" t="n">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B925" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
     </row>
     <row r="926">
       <c r="A926" s="2" t="n">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B926" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
     </row>
     <row r="927">
       <c r="A927" s="2" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B927" t="inlineStr">
         <is>
@@ -17057,12 +17057,12 @@
         </is>
       </c>
       <c r="D927" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" s="2" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B928" t="inlineStr">
         <is>
@@ -17075,12 +17075,12 @@
         </is>
       </c>
       <c r="D928" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" s="2" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B929" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         </is>
       </c>
       <c r="D929" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930">
@@ -18718,7 +18718,7 @@
     </row>
     <row r="1020">
       <c r="A1020" s="2" t="n">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B1020" t="inlineStr">
         <is>
@@ -18731,12 +18731,12 @@
         </is>
       </c>
       <c r="D1020" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" s="2" t="n">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B1021" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
     </row>
     <row r="1022">
       <c r="A1022" s="2" t="n">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B1022" t="inlineStr">
         <is>
@@ -18767,12 +18767,12 @@
         </is>
       </c>
       <c r="D1022" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" s="2" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B1023" t="inlineStr">
         <is>
@@ -18785,12 +18785,12 @@
         </is>
       </c>
       <c r="D1023" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" s="2" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B1024" t="inlineStr">
         <is>
@@ -18808,7 +18808,7 @@
     </row>
     <row r="1025">
       <c r="A1025" s="2" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B1025" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
     </row>
     <row r="1026">
       <c r="A1026" s="2" t="n">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B1026" t="inlineStr">
         <is>
@@ -18839,12 +18839,12 @@
         </is>
       </c>
       <c r="D1026" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" s="2" t="n">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B1027" t="inlineStr">
         <is>
@@ -18857,12 +18857,12 @@
         </is>
       </c>
       <c r="D1027" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" s="2" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B1028" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
     </row>
     <row r="1029">
       <c r="A1029" s="2" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B1029" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
     </row>
     <row r="1030">
       <c r="A1030" s="2" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B1030" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
     </row>
     <row r="1031">
       <c r="A1031" s="2" t="n">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B1031" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
     </row>
     <row r="1032">
       <c r="A1032" s="2" t="n">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B1032" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
     </row>
     <row r="1033">
       <c r="A1033" s="2" t="n">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B1033" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
     </row>
     <row r="1034">
       <c r="A1034" s="2" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B1034" t="inlineStr">
         <is>
@@ -18983,12 +18983,12 @@
         </is>
       </c>
       <c r="D1034" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" s="2" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B1035" t="inlineStr">
         <is>
@@ -19001,12 +19001,12 @@
         </is>
       </c>
       <c r="D1035" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B1036" t="inlineStr">
         <is>
@@ -19019,12 +19019,12 @@
         </is>
       </c>
       <c r="D1036" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" s="2" t="n">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B1037" t="inlineStr">
         <is>
@@ -19037,12 +19037,12 @@
         </is>
       </c>
       <c r="D1037" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" s="2" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B1038" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
     </row>
     <row r="1039">
       <c r="A1039" s="2" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B1039" t="inlineStr">
         <is>
@@ -19073,12 +19073,12 @@
         </is>
       </c>
       <c r="D1039" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" s="2" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B1040" t="inlineStr">
         <is>
@@ -19096,7 +19096,7 @@
     </row>
     <row r="1041">
       <c r="A1041" s="2" t="n">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B1041" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
     </row>
     <row r="1042">
       <c r="A1042" s="2" t="n">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B1042" t="inlineStr">
         <is>
@@ -19127,12 +19127,12 @@
         </is>
       </c>
       <c r="D1042" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" s="2" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B1043" t="inlineStr">
         <is>
@@ -19150,7 +19150,7 @@
     </row>
     <row r="1044">
       <c r="A1044" s="2" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B1044" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
     </row>
     <row r="1045">
       <c r="A1045" s="2" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B1045" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
     </row>
     <row r="1136">
       <c r="A1136" s="2" t="n">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
@@ -20819,12 +20819,12 @@
         </is>
       </c>
       <c r="D1136" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" s="2" t="n">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
@@ -20837,12 +20837,12 @@
         </is>
       </c>
       <c r="D1137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" s="2" t="n">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
@@ -20860,7 +20860,7 @@
     </row>
     <row r="1139">
       <c r="A1139" s="2" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B1139" t="inlineStr">
         <is>
@@ -20873,12 +20873,12 @@
         </is>
       </c>
       <c r="D1139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" s="2" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
     </row>
     <row r="1141">
       <c r="A1141" s="2" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
@@ -20909,12 +20909,12 @@
         </is>
       </c>
       <c r="D1141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" s="2" t="n">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
     </row>
     <row r="1143">
       <c r="A1143" s="2" t="n">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
     </row>
     <row r="1144">
       <c r="A1144" s="2" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
     </row>
     <row r="1145">
       <c r="A1145" s="2" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
@@ -20981,12 +20981,12 @@
         </is>
       </c>
       <c r="D1145" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" s="2" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
@@ -20999,12 +20999,12 @@
         </is>
       </c>
       <c r="D1146" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" s="2" t="n">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
     </row>
     <row r="1148">
       <c r="A1148" s="2" t="n">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
     </row>
     <row r="1149">
       <c r="A1149" s="2" t="n">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B1149" t="inlineStr">
         <is>
@@ -21053,12 +21053,12 @@
         </is>
       </c>
       <c r="D1149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" s="2" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
@@ -21076,7 +21076,7 @@
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
@@ -21107,12 +21107,12 @@
         </is>
       </c>
       <c r="D1152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
@@ -21130,7 +21130,7 @@
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
@@ -21166,7 +21166,7 @@
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
@@ -21179,12 +21179,12 @@
         </is>
       </c>
       <c r="D1156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" s="2" t="n">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
@@ -21202,7 +21202,7 @@
     </row>
     <row r="1158">
       <c r="A1158" s="2" t="n">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
     </row>
     <row r="1159">
       <c r="A1159" s="2" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
     </row>
     <row r="1160">
       <c r="A1160" s="2" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
     </row>
     <row r="1161">
       <c r="A1161" s="2" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
     </row>
     <row r="1252">
       <c r="A1252" s="2" t="n">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B1252" t="inlineStr">
         <is>
@@ -22907,12 +22907,12 @@
         </is>
       </c>
       <c r="D1252" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" s="2" t="n">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B1253" t="inlineStr">
         <is>
@@ -22925,12 +22925,12 @@
         </is>
       </c>
       <c r="D1253" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1254">
       <c r="A1254" s="2" t="n">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B1254" t="inlineStr">
         <is>
@@ -22943,12 +22943,12 @@
         </is>
       </c>
       <c r="D1254" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" s="2" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B1255" t="inlineStr">
         <is>
@@ -22961,12 +22961,12 @@
         </is>
       </c>
       <c r="D1255" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1256">
       <c r="A1256" s="2" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B1256" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
     </row>
     <row r="1257">
       <c r="A1257" s="2" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B1257" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
     </row>
     <row r="1258">
       <c r="A1258" s="2" t="n">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B1258" t="inlineStr">
         <is>
@@ -23020,7 +23020,7 @@
     </row>
     <row r="1259">
       <c r="A1259" s="2" t="n">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B1259" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
     </row>
     <row r="1260">
       <c r="A1260" s="2" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B1260" t="inlineStr">
         <is>
@@ -23056,7 +23056,7 @@
     </row>
     <row r="1261">
       <c r="A1261" s="2" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B1261" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
     </row>
     <row r="1262">
       <c r="A1262" s="2" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B1262" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
     </row>
     <row r="1263">
       <c r="A1263" s="2" t="n">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B1263" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
     </row>
     <row r="1264">
       <c r="A1264" s="2" t="n">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B1264" t="inlineStr">
         <is>
@@ -23123,12 +23123,12 @@
         </is>
       </c>
       <c r="D1264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" s="2" t="n">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B1265" t="inlineStr">
         <is>
@@ -23146,7 +23146,7 @@
     </row>
     <row r="1266">
       <c r="A1266" s="2" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B1266" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
     </row>
     <row r="1267">
       <c r="A1267" s="2" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B1267" t="inlineStr">
         <is>
@@ -23177,12 +23177,12 @@
         </is>
       </c>
       <c r="D1267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268">
       <c r="A1268" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B1268" t="inlineStr">
         <is>
@@ -23200,7 +23200,7 @@
     </row>
     <row r="1269">
       <c r="A1269" s="2" t="n">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B1269" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
     </row>
     <row r="1270">
       <c r="A1270" s="2" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B1270" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
     </row>
     <row r="1271">
       <c r="A1271" s="2" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B1271" t="inlineStr">
         <is>
@@ -23254,7 +23254,7 @@
     </row>
     <row r="1272">
       <c r="A1272" s="2" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B1272" t="inlineStr">
         <is>
@@ -23267,12 +23267,12 @@
         </is>
       </c>
       <c r="D1272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1273">
       <c r="A1273" s="2" t="n">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B1273" t="inlineStr">
         <is>
@@ -23285,12 +23285,12 @@
         </is>
       </c>
       <c r="D1273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1274">
       <c r="A1274" s="2" t="n">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B1274" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
     </row>
     <row r="1275">
       <c r="A1275" s="2" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B1275" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
     </row>
     <row r="1276">
       <c r="A1276" s="2" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B1276" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
     </row>
     <row r="1277">
       <c r="A1277" s="2" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B1277" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
     </row>
     <row r="1368">
       <c r="A1368" s="2" t="n">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B1368" t="inlineStr">
         <is>
@@ -25000,7 +25000,7 @@
     </row>
     <row r="1369">
       <c r="A1369" s="2" t="n">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B1369" t="inlineStr">
         <is>
@@ -25018,7 +25018,7 @@
     </row>
     <row r="1370">
       <c r="A1370" s="2" t="n">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B1370" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
     </row>
     <row r="1371">
       <c r="A1371" s="2" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B1371" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
     </row>
     <row r="1372">
       <c r="A1372" s="2" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B1372" t="inlineStr">
         <is>
@@ -25072,7 +25072,7 @@
     </row>
     <row r="1373">
       <c r="A1373" s="2" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B1373" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
     </row>
     <row r="1374">
       <c r="A1374" s="2" t="n">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B1374" t="inlineStr">
         <is>
@@ -25108,7 +25108,7 @@
     </row>
     <row r="1375">
       <c r="A1375" s="2" t="n">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B1375" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
     </row>
     <row r="1376">
       <c r="A1376" s="2" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B1376" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
     </row>
     <row r="1377">
       <c r="A1377" s="2" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B1377" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
     </row>
     <row r="1378">
       <c r="A1378" s="2" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B1378" t="inlineStr">
         <is>
@@ -25180,7 +25180,7 @@
     </row>
     <row r="1379">
       <c r="A1379" s="2" t="n">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B1379" t="inlineStr">
         <is>
@@ -25198,7 +25198,7 @@
     </row>
     <row r="1380">
       <c r="A1380" s="2" t="n">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B1380" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
     </row>
     <row r="1381">
       <c r="A1381" s="2" t="n">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B1381" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
     </row>
     <row r="1382">
       <c r="A1382" s="2" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B1382" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
     </row>
     <row r="1383">
       <c r="A1383" s="2" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B1383" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
     </row>
     <row r="1384">
       <c r="A1384" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B1384" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
     </row>
     <row r="1385">
       <c r="A1385" s="2" t="n">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B1385" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
     </row>
     <row r="1386">
       <c r="A1386" s="2" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B1386" t="inlineStr">
         <is>
@@ -25324,7 +25324,7 @@
     </row>
     <row r="1387">
       <c r="A1387" s="2" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B1387" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
     </row>
     <row r="1388">
       <c r="A1388" s="2" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B1388" t="inlineStr">
         <is>
@@ -25360,7 +25360,7 @@
     </row>
     <row r="1389">
       <c r="A1389" s="2" t="n">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B1389" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
     </row>
     <row r="1390">
       <c r="A1390" s="2" t="n">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B1390" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
     </row>
     <row r="1391">
       <c r="A1391" s="2" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B1391" t="inlineStr">
         <is>
@@ -25414,7 +25414,7 @@
     </row>
     <row r="1392">
       <c r="A1392" s="2" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B1392" t="inlineStr">
         <is>
@@ -25432,7 +25432,7 @@
     </row>
     <row r="1393">
       <c r="A1393" s="2" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B1393" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
     </row>
     <row r="1484">
       <c r="A1484" s="2" t="n">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
@@ -27083,12 +27083,12 @@
         </is>
       </c>
       <c r="D1484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1485">
       <c r="A1485" s="2" t="n">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
     </row>
     <row r="1486">
       <c r="A1486" s="2" t="n">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
@@ -27124,7 +27124,7 @@
     </row>
     <row r="1487">
       <c r="A1487" s="2" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
     </row>
     <row r="1488">
       <c r="A1488" s="2" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
@@ -27160,7 +27160,7 @@
     </row>
     <row r="1489">
       <c r="A1489" s="2" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
@@ -27178,7 +27178,7 @@
     </row>
     <row r="1490">
       <c r="A1490" s="2" t="n">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
@@ -27196,7 +27196,7 @@
     </row>
     <row r="1491">
       <c r="A1491" s="2" t="n">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
     </row>
     <row r="1492">
       <c r="A1492" s="2" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
@@ -27232,7 +27232,7 @@
     </row>
     <row r="1493">
       <c r="A1493" s="2" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
@@ -27245,12 +27245,12 @@
         </is>
       </c>
       <c r="D1493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" s="2" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
@@ -27268,7 +27268,7 @@
     </row>
     <row r="1495">
       <c r="A1495" s="2" t="n">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
@@ -27286,7 +27286,7 @@
     </row>
     <row r="1496">
       <c r="A1496" s="2" t="n">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
@@ -27304,7 +27304,7 @@
     </row>
     <row r="1497">
       <c r="A1497" s="2" t="n">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
@@ -27322,7 +27322,7 @@
     </row>
     <row r="1498">
       <c r="A1498" s="2" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
     </row>
     <row r="1499">
       <c r="A1499" s="2" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
@@ -27358,7 +27358,7 @@
     </row>
     <row r="1500">
       <c r="A1500" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
@@ -27376,7 +27376,7 @@
     </row>
     <row r="1501">
       <c r="A1501" s="2" t="n">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
     </row>
     <row r="1502">
       <c r="A1502" s="2" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
@@ -27412,7 +27412,7 @@
     </row>
     <row r="1503">
       <c r="A1503" s="2" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
@@ -27430,7 +27430,7 @@
     </row>
     <row r="1504">
       <c r="A1504" s="2" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B1504" t="inlineStr">
         <is>
@@ -27448,7 +27448,7 @@
     </row>
     <row r="1505">
       <c r="A1505" s="2" t="n">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B1505" t="inlineStr">
         <is>
@@ -27466,7 +27466,7 @@
     </row>
     <row r="1506">
       <c r="A1506" s="2" t="n">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B1506" t="inlineStr">
         <is>
@@ -27484,7 +27484,7 @@
     </row>
     <row r="1507">
       <c r="A1507" s="2" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B1507" t="inlineStr">
         <is>
@@ -27502,7 +27502,7 @@
     </row>
     <row r="1508">
       <c r="A1508" s="2" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
@@ -27520,7 +27520,7 @@
     </row>
     <row r="1509">
       <c r="A1509" s="2" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B1509" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
     </row>
     <row r="1600">
       <c r="A1600" s="2" t="n">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
@@ -29176,7 +29176,7 @@
     </row>
     <row r="1601">
       <c r="A1601" s="2" t="n">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
     </row>
     <row r="1602">
       <c r="A1602" s="2" t="n">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B1602" t="inlineStr">
         <is>
@@ -29212,7 +29212,7 @@
     </row>
     <row r="1603">
       <c r="A1603" s="2" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
     </row>
     <row r="1604">
       <c r="A1604" s="2" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
     </row>
     <row r="1605">
       <c r="A1605" s="2" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
     </row>
     <row r="1606">
       <c r="A1606" s="2" t="n">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
@@ -29279,12 +29279,12 @@
         </is>
       </c>
       <c r="D1606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1607">
       <c r="A1607" s="2" t="n">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
     </row>
     <row r="1608">
       <c r="A1608" s="2" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
@@ -29320,7 +29320,7 @@
     </row>
     <row r="1609">
       <c r="A1609" s="2" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
@@ -29338,7 +29338,7 @@
     </row>
     <row r="1610">
       <c r="A1610" s="2" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
@@ -29351,12 +29351,12 @@
         </is>
       </c>
       <c r="D1610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1611">
       <c r="A1611" s="2" t="n">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
@@ -29374,7 +29374,7 @@
     </row>
     <row r="1612">
       <c r="A1612" s="2" t="n">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
@@ -29392,7 +29392,7 @@
     </row>
     <row r="1613">
       <c r="A1613" s="2" t="n">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
     </row>
     <row r="1614">
       <c r="A1614" s="2" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
@@ -29428,7 +29428,7 @@
     </row>
     <row r="1615">
       <c r="A1615" s="2" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
@@ -29441,12 +29441,12 @@
         </is>
       </c>
       <c r="D1615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
@@ -29459,12 +29459,12 @@
         </is>
       </c>
       <c r="D1616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1617">
       <c r="A1617" s="2" t="n">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
     </row>
     <row r="1618">
       <c r="A1618" s="2" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
@@ -29500,7 +29500,7 @@
     </row>
     <row r="1619">
       <c r="A1619" s="2" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
@@ -29518,7 +29518,7 @@
     </row>
     <row r="1620">
       <c r="A1620" s="2" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
     </row>
     <row r="1621">
       <c r="A1621" s="2" t="n">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
     </row>
     <row r="1622">
       <c r="A1622" s="2" t="n">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
@@ -29567,12 +29567,12 @@
         </is>
       </c>
       <c r="D1622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1623">
       <c r="A1623" s="2" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
     </row>
     <row r="1624">
       <c r="A1624" s="2" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
@@ -29608,7 +29608,7 @@
     </row>
     <row r="1625">
       <c r="A1625" s="2" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
@@ -31246,7 +31246,7 @@
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B1716" t="inlineStr">
         <is>
@@ -31259,12 +31259,12 @@
         </is>
       </c>
       <c r="D1716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1717">
       <c r="A1717" s="2" t="n">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B1717" t="inlineStr">
         <is>
@@ -31282,7 +31282,7 @@
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B1718" t="inlineStr">
         <is>
@@ -31300,7 +31300,7 @@
     </row>
     <row r="1719">
       <c r="A1719" s="2" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B1719" t="inlineStr">
         <is>
@@ -31318,7 +31318,7 @@
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B1720" t="inlineStr">
         <is>
@@ -31336,7 +31336,7 @@
     </row>
     <row r="1721">
       <c r="A1721" s="2" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B1721" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
     </row>
     <row r="1722">
       <c r="A1722" s="2" t="n">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B1722" t="inlineStr">
         <is>
@@ -31372,7 +31372,7 @@
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B1723" t="inlineStr">
         <is>
@@ -31390,7 +31390,7 @@
     </row>
     <row r="1724">
       <c r="A1724" s="2" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B1724" t="inlineStr">
         <is>
@@ -31408,7 +31408,7 @@
     </row>
     <row r="1725">
       <c r="A1725" s="2" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B1725" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
     </row>
     <row r="1726">
       <c r="A1726" s="2" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B1726" t="inlineStr">
         <is>
@@ -31444,7 +31444,7 @@
     </row>
     <row r="1727">
       <c r="A1727" s="2" t="n">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B1727" t="inlineStr">
         <is>
@@ -31462,7 +31462,7 @@
     </row>
     <row r="1728">
       <c r="A1728" s="2" t="n">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B1728" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
     </row>
     <row r="1729">
       <c r="A1729" s="2" t="n">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B1729" t="inlineStr">
         <is>
@@ -31498,7 +31498,7 @@
     </row>
     <row r="1730">
       <c r="A1730" s="2" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B1730" t="inlineStr">
         <is>
@@ -31516,7 +31516,7 @@
     </row>
     <row r="1731">
       <c r="A1731" s="2" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B1731" t="inlineStr">
         <is>
@@ -31534,7 +31534,7 @@
     </row>
     <row r="1732">
       <c r="A1732" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B1732" t="inlineStr">
         <is>
@@ -31552,7 +31552,7 @@
     </row>
     <row r="1733">
       <c r="A1733" s="2" t="n">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B1733" t="inlineStr">
         <is>
@@ -31570,7 +31570,7 @@
     </row>
     <row r="1734">
       <c r="A1734" s="2" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B1734" t="inlineStr">
         <is>
@@ -31588,7 +31588,7 @@
     </row>
     <row r="1735">
       <c r="A1735" s="2" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B1735" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
     </row>
     <row r="1736">
       <c r="A1736" s="2" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B1736" t="inlineStr">
         <is>
@@ -31624,7 +31624,7 @@
     </row>
     <row r="1737">
       <c r="A1737" s="2" t="n">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B1737" t="inlineStr">
         <is>
@@ -31642,7 +31642,7 @@
     </row>
     <row r="1738">
       <c r="A1738" s="2" t="n">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B1738" t="inlineStr">
         <is>
@@ -31660,7 +31660,7 @@
     </row>
     <row r="1739">
       <c r="A1739" s="2" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B1739" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
     </row>
     <row r="1740">
       <c r="A1740" s="2" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B1740" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
     </row>
     <row r="1741">
       <c r="A1741" s="2" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B1741" t="inlineStr">
         <is>
@@ -33334,7 +33334,7 @@
     </row>
     <row r="1832">
       <c r="A1832" s="2" t="n">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B1832" t="inlineStr">
         <is>
@@ -33347,12 +33347,12 @@
         </is>
       </c>
       <c r="D1832" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1833">
       <c r="A1833" s="2" t="n">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B1833" t="inlineStr">
         <is>
@@ -33370,7 +33370,7 @@
     </row>
     <row r="1834">
       <c r="A1834" s="2" t="n">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B1834" t="inlineStr">
         <is>
@@ -33388,7 +33388,7 @@
     </row>
     <row r="1835">
       <c r="A1835" s="2" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B1835" t="inlineStr">
         <is>
@@ -33406,7 +33406,7 @@
     </row>
     <row r="1836">
       <c r="A1836" s="2" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B1836" t="inlineStr">
         <is>
@@ -33424,7 +33424,7 @@
     </row>
     <row r="1837">
       <c r="A1837" s="2" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B1837" t="inlineStr">
         <is>
@@ -33437,12 +33437,12 @@
         </is>
       </c>
       <c r="D1837" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1838">
       <c r="A1838" s="2" t="n">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B1838" t="inlineStr">
         <is>
@@ -33455,12 +33455,12 @@
         </is>
       </c>
       <c r="D1838" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1839">
       <c r="A1839" s="2" t="n">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B1839" t="inlineStr">
         <is>
@@ -33478,7 +33478,7 @@
     </row>
     <row r="1840">
       <c r="A1840" s="2" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B1840" t="inlineStr">
         <is>
@@ -33496,7 +33496,7 @@
     </row>
     <row r="1841">
       <c r="A1841" s="2" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B1841" t="inlineStr">
         <is>
@@ -33514,7 +33514,7 @@
     </row>
     <row r="1842">
       <c r="A1842" s="2" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B1842" t="inlineStr">
         <is>
@@ -33527,12 +33527,12 @@
         </is>
       </c>
       <c r="D1842" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1843">
       <c r="A1843" s="2" t="n">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B1843" t="inlineStr">
         <is>
@@ -33545,12 +33545,12 @@
         </is>
       </c>
       <c r="D1843" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1844">
       <c r="A1844" s="2" t="n">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B1844" t="inlineStr">
         <is>
@@ -33563,12 +33563,12 @@
         </is>
       </c>
       <c r="D1844" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1845">
       <c r="A1845" s="2" t="n">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B1845" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
     </row>
     <row r="1846">
       <c r="A1846" s="2" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B1846" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
     </row>
     <row r="1847">
       <c r="A1847" s="2" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B1847" t="inlineStr">
         <is>
@@ -33622,7 +33622,7 @@
     </row>
     <row r="1848">
       <c r="A1848" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B1848" t="inlineStr">
         <is>
@@ -33640,7 +33640,7 @@
     </row>
     <row r="1849">
       <c r="A1849" s="2" t="n">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B1849" t="inlineStr">
         <is>
@@ -33658,7 +33658,7 @@
     </row>
     <row r="1850">
       <c r="A1850" s="2" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B1850" t="inlineStr">
         <is>
@@ -33676,7 +33676,7 @@
     </row>
     <row r="1851">
       <c r="A1851" s="2" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B1851" t="inlineStr">
         <is>
@@ -33694,7 +33694,7 @@
     </row>
     <row r="1852">
       <c r="A1852" s="2" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B1852" t="inlineStr">
         <is>
@@ -33707,12 +33707,12 @@
         </is>
       </c>
       <c r="D1852" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1853">
       <c r="A1853" s="2" t="n">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B1853" t="inlineStr">
         <is>
@@ -33725,12 +33725,12 @@
         </is>
       </c>
       <c r="D1853" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1854">
       <c r="A1854" s="2" t="n">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B1854" t="inlineStr">
         <is>
@@ -33748,7 +33748,7 @@
     </row>
     <row r="1855">
       <c r="A1855" s="2" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B1855" t="inlineStr">
         <is>
@@ -33761,12 +33761,12 @@
         </is>
       </c>
       <c r="D1855" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1856">
       <c r="A1856" s="2" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B1856" t="inlineStr">
         <is>
@@ -33779,12 +33779,12 @@
         </is>
       </c>
       <c r="D1856" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1857">
       <c r="A1857" s="2" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B1857" t="inlineStr">
         <is>
@@ -33797,7 +33797,7 @@
         </is>
       </c>
       <c r="D1857" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1858">
@@ -35422,7 +35422,7 @@
     </row>
     <row r="1948">
       <c r="A1948" s="2" t="n">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B1948" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
     </row>
     <row r="1949">
       <c r="A1949" s="2" t="n">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B1949" t="inlineStr">
         <is>
@@ -35453,12 +35453,12 @@
         </is>
       </c>
       <c r="D1949" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1950">
       <c r="A1950" s="2" t="n">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B1950" t="inlineStr">
         <is>
@@ -35476,7 +35476,7 @@
     </row>
     <row r="1951">
       <c r="A1951" s="2" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
@@ -35494,7 +35494,7 @@
     </row>
     <row r="1952">
       <c r="A1952" s="2" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
@@ -35512,7 +35512,7 @@
     </row>
     <row r="1953">
       <c r="A1953" s="2" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
@@ -35525,12 +35525,12 @@
         </is>
       </c>
       <c r="D1953" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1954">
       <c r="A1954" s="2" t="n">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B1954" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
     </row>
     <row r="1955">
       <c r="A1955" s="2" t="n">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B1955" t="inlineStr">
         <is>
@@ -35561,12 +35561,12 @@
         </is>
       </c>
       <c r="D1955" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1956">
       <c r="A1956" s="2" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
@@ -35579,12 +35579,12 @@
         </is>
       </c>
       <c r="D1956" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1957">
       <c r="A1957" s="2" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
@@ -35597,12 +35597,12 @@
         </is>
       </c>
       <c r="D1957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1958">
       <c r="A1958" s="2" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B1958" t="inlineStr">
         <is>
@@ -35620,7 +35620,7 @@
     </row>
     <row r="1959">
       <c r="A1959" s="2" t="n">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B1959" t="inlineStr">
         <is>
@@ -35638,7 +35638,7 @@
     </row>
     <row r="1960">
       <c r="A1960" s="2" t="n">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B1960" t="inlineStr">
         <is>
@@ -35656,7 +35656,7 @@
     </row>
     <row r="1961">
       <c r="A1961" s="2" t="n">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
     </row>
     <row r="1962">
       <c r="A1962" s="2" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
@@ -35692,7 +35692,7 @@
     </row>
     <row r="1963">
       <c r="A1963" s="2" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B1963" t="inlineStr">
         <is>
@@ -35710,7 +35710,7 @@
     </row>
     <row r="1964">
       <c r="A1964" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B1964" t="inlineStr">
         <is>
@@ -35728,7 +35728,7 @@
     </row>
     <row r="1965">
       <c r="A1965" s="2" t="n">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B1965" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
     </row>
     <row r="1966">
       <c r="A1966" s="2" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B1966" t="inlineStr">
         <is>
@@ -35764,7 +35764,7 @@
     </row>
     <row r="1967">
       <c r="A1967" s="2" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B1967" t="inlineStr">
         <is>
@@ -35782,7 +35782,7 @@
     </row>
     <row r="1968">
       <c r="A1968" s="2" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B1968" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
     </row>
     <row r="1969">
       <c r="A1969" s="2" t="n">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B1969" t="inlineStr">
         <is>
@@ -35818,7 +35818,7 @@
     </row>
     <row r="1970">
       <c r="A1970" s="2" t="n">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B1970" t="inlineStr">
         <is>
@@ -35836,7 +35836,7 @@
     </row>
     <row r="1971">
       <c r="A1971" s="2" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B1971" t="inlineStr">
         <is>
@@ -35854,7 +35854,7 @@
     </row>
     <row r="1972">
       <c r="A1972" s="2" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B1972" t="inlineStr">
         <is>
@@ -35872,7 +35872,7 @@
     </row>
     <row r="1973">
       <c r="A1973" s="2" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B1973" t="inlineStr">
         <is>
@@ -37510,7 +37510,7 @@
     </row>
     <row r="2064">
       <c r="A2064" s="2" t="n">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B2064" t="inlineStr">
         <is>
@@ -37528,7 +37528,7 @@
     </row>
     <row r="2065">
       <c r="A2065" s="2" t="n">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B2065" t="inlineStr">
         <is>
@@ -37546,7 +37546,7 @@
     </row>
     <row r="2066">
       <c r="A2066" s="2" t="n">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B2066" t="inlineStr">
         <is>
@@ -37564,7 +37564,7 @@
     </row>
     <row r="2067">
       <c r="A2067" s="2" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B2067" t="inlineStr">
         <is>
@@ -37577,12 +37577,12 @@
         </is>
       </c>
       <c r="D2067" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2068">
       <c r="A2068" s="2" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B2068" t="inlineStr">
         <is>
@@ -37595,12 +37595,12 @@
         </is>
       </c>
       <c r="D2068" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2069">
       <c r="A2069" s="2" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B2069" t="inlineStr">
         <is>
@@ -37618,7 +37618,7 @@
     </row>
     <row r="2070">
       <c r="A2070" s="2" t="n">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B2070" t="inlineStr">
         <is>
@@ -37636,7 +37636,7 @@
     </row>
     <row r="2071">
       <c r="A2071" s="2" t="n">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B2071" t="inlineStr">
         <is>
@@ -37654,7 +37654,7 @@
     </row>
     <row r="2072">
       <c r="A2072" s="2" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B2072" t="inlineStr">
         <is>
@@ -37672,7 +37672,7 @@
     </row>
     <row r="2073">
       <c r="A2073" s="2" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B2073" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
     </row>
     <row r="2074">
       <c r="A2074" s="2" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B2074" t="inlineStr">
         <is>
@@ -37708,7 +37708,7 @@
     </row>
     <row r="2075">
       <c r="A2075" s="2" t="n">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B2075" t="inlineStr">
         <is>
@@ -37726,7 +37726,7 @@
     </row>
     <row r="2076">
       <c r="A2076" s="2" t="n">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B2076" t="inlineStr">
         <is>
@@ -37744,7 +37744,7 @@
     </row>
     <row r="2077">
       <c r="A2077" s="2" t="n">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B2077" t="inlineStr">
         <is>
@@ -37762,7 +37762,7 @@
     </row>
     <row r="2078">
       <c r="A2078" s="2" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B2078" t="inlineStr">
         <is>
@@ -37780,7 +37780,7 @@
     </row>
     <row r="2079">
       <c r="A2079" s="2" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B2079" t="inlineStr">
         <is>
@@ -37798,7 +37798,7 @@
     </row>
     <row r="2080">
       <c r="A2080" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B2080" t="inlineStr">
         <is>
@@ -37816,7 +37816,7 @@
     </row>
     <row r="2081">
       <c r="A2081" s="2" t="n">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B2081" t="inlineStr">
         <is>
@@ -37834,7 +37834,7 @@
     </row>
     <row r="2082">
       <c r="A2082" s="2" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B2082" t="inlineStr">
         <is>
@@ -37852,7 +37852,7 @@
     </row>
     <row r="2083">
       <c r="A2083" s="2" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B2083" t="inlineStr">
         <is>
@@ -37870,7 +37870,7 @@
     </row>
     <row r="2084">
       <c r="A2084" s="2" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B2084" t="inlineStr">
         <is>
@@ -37888,7 +37888,7 @@
     </row>
     <row r="2085">
       <c r="A2085" s="2" t="n">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B2085" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
     </row>
     <row r="2086">
       <c r="A2086" s="2" t="n">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B2086" t="inlineStr">
         <is>
@@ -37924,7 +37924,7 @@
     </row>
     <row r="2087">
       <c r="A2087" s="2" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B2087" t="inlineStr">
         <is>
@@ -37942,7 +37942,7 @@
     </row>
     <row r="2088">
       <c r="A2088" s="2" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B2088" t="inlineStr">
         <is>
@@ -37960,7 +37960,7 @@
     </row>
     <row r="2089">
       <c r="A2089" s="2" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B2089" t="inlineStr">
         <is>
@@ -39598,7 +39598,7 @@
     </row>
     <row r="2180">
       <c r="A2180" s="2" t="n">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B2180" t="inlineStr">
         <is>
@@ -39616,7 +39616,7 @@
     </row>
     <row r="2181">
       <c r="A2181" s="2" t="n">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B2181" t="inlineStr">
         <is>
@@ -39634,7 +39634,7 @@
     </row>
     <row r="2182">
       <c r="A2182" s="2" t="n">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B2182" t="inlineStr">
         <is>
@@ -39652,7 +39652,7 @@
     </row>
     <row r="2183">
       <c r="A2183" s="2" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B2183" t="inlineStr">
         <is>
@@ -39670,7 +39670,7 @@
     </row>
     <row r="2184">
       <c r="A2184" s="2" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B2184" t="inlineStr">
         <is>
@@ -39688,7 +39688,7 @@
     </row>
     <row r="2185">
       <c r="A2185" s="2" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B2185" t="inlineStr">
         <is>
@@ -39706,7 +39706,7 @@
     </row>
     <row r="2186">
       <c r="A2186" s="2" t="n">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B2186" t="inlineStr">
         <is>
@@ -39724,7 +39724,7 @@
     </row>
     <row r="2187">
       <c r="A2187" s="2" t="n">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B2187" t="inlineStr">
         <is>
@@ -39742,7 +39742,7 @@
     </row>
     <row r="2188">
       <c r="A2188" s="2" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B2188" t="inlineStr">
         <is>
@@ -39760,7 +39760,7 @@
     </row>
     <row r="2189">
       <c r="A2189" s="2" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B2189" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
     </row>
     <row r="2190">
       <c r="A2190" s="2" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B2190" t="inlineStr">
         <is>
@@ -39796,7 +39796,7 @@
     </row>
     <row r="2191">
       <c r="A2191" s="2" t="n">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B2191" t="inlineStr">
         <is>
@@ -39814,7 +39814,7 @@
     </row>
     <row r="2192">
       <c r="A2192" s="2" t="n">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B2192" t="inlineStr">
         <is>
@@ -39832,7 +39832,7 @@
     </row>
     <row r="2193">
       <c r="A2193" s="2" t="n">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B2193" t="inlineStr">
         <is>
@@ -39850,7 +39850,7 @@
     </row>
     <row r="2194">
       <c r="A2194" s="2" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B2194" t="inlineStr">
         <is>
@@ -39868,7 +39868,7 @@
     </row>
     <row r="2195">
       <c r="A2195" s="2" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B2195" t="inlineStr">
         <is>
@@ -39886,7 +39886,7 @@
     </row>
     <row r="2196">
       <c r="A2196" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B2196" t="inlineStr">
         <is>
@@ -39904,7 +39904,7 @@
     </row>
     <row r="2197">
       <c r="A2197" s="2" t="n">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B2197" t="inlineStr">
         <is>
@@ -39922,7 +39922,7 @@
     </row>
     <row r="2198">
       <c r="A2198" s="2" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B2198" t="inlineStr">
         <is>
@@ -39940,7 +39940,7 @@
     </row>
     <row r="2199">
       <c r="A2199" s="2" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B2199" t="inlineStr">
         <is>
@@ -39958,7 +39958,7 @@
     </row>
     <row r="2200">
       <c r="A2200" s="2" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B2200" t="inlineStr">
         <is>
@@ -39976,7 +39976,7 @@
     </row>
     <row r="2201">
       <c r="A2201" s="2" t="n">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B2201" t="inlineStr">
         <is>
@@ -39994,7 +39994,7 @@
     </row>
     <row r="2202">
       <c r="A2202" s="2" t="n">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B2202" t="inlineStr">
         <is>
@@ -40012,7 +40012,7 @@
     </row>
     <row r="2203">
       <c r="A2203" s="2" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B2203" t="inlineStr">
         <is>
@@ -40030,7 +40030,7 @@
     </row>
     <row r="2204">
       <c r="A2204" s="2" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B2204" t="inlineStr">
         <is>
@@ -40048,7 +40048,7 @@
     </row>
     <row r="2205">
       <c r="A2205" s="2" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B2205" t="inlineStr">
         <is>
@@ -41686,7 +41686,7 @@
     </row>
     <row r="2296">
       <c r="A2296" s="2" t="n">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
@@ -41704,7 +41704,7 @@
     </row>
     <row r="2297">
       <c r="A2297" s="2" t="n">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
@@ -41722,7 +41722,7 @@
     </row>
     <row r="2298">
       <c r="A2298" s="2" t="n">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
@@ -41740,7 +41740,7 @@
     </row>
     <row r="2299">
       <c r="A2299" s="2" t="n">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
@@ -41758,7 +41758,7 @@
     </row>
     <row r="2300">
       <c r="A2300" s="2" t="n">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
@@ -41776,7 +41776,7 @@
     </row>
     <row r="2301">
       <c r="A2301" s="2" t="n">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
@@ -41794,7 +41794,7 @@
     </row>
     <row r="2302">
       <c r="A2302" s="2" t="n">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
@@ -41812,7 +41812,7 @@
     </row>
     <row r="2303">
       <c r="A2303" s="2" t="n">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
@@ -41830,7 +41830,7 @@
     </row>
     <row r="2304">
       <c r="A2304" s="2" t="n">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
@@ -41848,7 +41848,7 @@
     </row>
     <row r="2305">
       <c r="A2305" s="2" t="n">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B2305" t="inlineStr">
         <is>
@@ -41866,7 +41866,7 @@
     </row>
     <row r="2306">
       <c r="A2306" s="2" t="n">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B2306" t="inlineStr">
         <is>
@@ -41884,7 +41884,7 @@
     </row>
     <row r="2307">
       <c r="A2307" s="2" t="n">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B2307" t="inlineStr">
         <is>
@@ -41902,7 +41902,7 @@
     </row>
     <row r="2308">
       <c r="A2308" s="2" t="n">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
@@ -41920,7 +41920,7 @@
     </row>
     <row r="2309">
       <c r="A2309" s="2" t="n">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
@@ -41938,7 +41938,7 @@
     </row>
     <row r="2310">
       <c r="A2310" s="2" t="n">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
@@ -41956,7 +41956,7 @@
     </row>
     <row r="2311">
       <c r="A2311" s="2" t="n">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
@@ -41974,7 +41974,7 @@
     </row>
     <row r="2312">
       <c r="A2312" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
@@ -41992,7 +41992,7 @@
     </row>
     <row r="2313">
       <c r="A2313" s="2" t="n">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
@@ -42010,7 +42010,7 @@
     </row>
     <row r="2314">
       <c r="A2314" s="2" t="n">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B2314" t="inlineStr">
         <is>
@@ -42028,7 +42028,7 @@
     </row>
     <row r="2315">
       <c r="A2315" s="2" t="n">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
@@ -42041,12 +42041,12 @@
         </is>
       </c>
       <c r="D2315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2316">
       <c r="A2316" s="2" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
@@ -42064,7 +42064,7 @@
     </row>
     <row r="2317">
       <c r="A2317" s="2" t="n">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B2317" t="inlineStr">
         <is>
@@ -42082,7 +42082,7 @@
     </row>
     <row r="2318">
       <c r="A2318" s="2" t="n">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B2318" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
     </row>
     <row r="2319">
       <c r="A2319" s="2" t="n">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B2319" t="inlineStr">
         <is>
@@ -42118,7 +42118,7 @@
     </row>
     <row r="2320">
       <c r="A2320" s="2" t="n">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B2320" t="inlineStr">
         <is>
@@ -42131,12 +42131,12 @@
         </is>
       </c>
       <c r="D2320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2321">
       <c r="A2321" s="2" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B2321" t="inlineStr">
         <is>

--- a/data/admissions_org.xlsx
+++ b/data/admissions_org.xlsx
@@ -65549,7 +65549,7 @@
         </is>
       </c>
       <c r="D3621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
